--- a/biology/Botanique/Winifred_Mary_Curtis/Winifred_Mary_Curtis.xlsx
+++ b/biology/Botanique/Winifred_Mary_Curtis/Winifred_Mary_Curtis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Winifred Mary Curtis est une botaniste australienne d'origine britannique, née le 15 juin 1905 à Londres et morte le 14 octobre 2005 à Hobart.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Winifred Mary Curtis  vit plusieurs années en Inde, où son père est fonctionnaire britannique. Sa famille rentre en Angleterre en 1920, et elle fait ses études à University College de Londres. Elle obtient son diplôme de sciences en 1927, puis un diplôme honorifique en 1928[1]. Elle obtient une diplôme d'enseignement à Cambridge et enseigne la biologie aux lycées de Manchester et à Hampstead. Elle obtient un master de sciences en 1939, puis s’installe en Australie en septembre 1939 et devient membre du département de biologie de l'université de Tasmanie, où elle participe à la création du département de botanique en 1945. Elle y réalise toute sa carrière, et dirige le département à plusieurs reprises.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Winifred Mary Curtis  vit plusieurs années en Inde, où son père est fonctionnaire britannique. Sa famille rentre en Angleterre en 1920, et elle fait ses études à University College de Londres. Elle obtient son diplôme de sciences en 1927, puis un diplôme honorifique en 1928. Elle obtient une diplôme d'enseignement à Cambridge et enseigne la biologie aux lycées de Manchester et à Hampstead. Elle obtient un master de sciences en 1939, puis s’installe en Australie en septembre 1939 et devient membre du département de biologie de l'université de Tasmanie, où elle participe à la création du département de botanique en 1945. Elle y réalise toute sa carrière, et dirige le département à plusieurs reprises.
 En 1945, elle commence à travailler à The Students' Flora of Tasmania qui sert de base à son enseignement. De 1967 à 1978, elle rédige The Endemic Flora of Tasmania, dont Margaret Stones assure les illustrations.
 Winifred Mary Curtis prend sa retraite en 1966 et prend une part active à la création de l’herbier tasmanien en 1977.
 Elle continue alors à visiter son herbier et à améliorer le manuel d’enseignement. Elle meurt centenaire le 14 octobre 2005 à Hobart.
